--- a/biology/Médecine/Viktor_Skoumine/Viktor_Skoumine.xlsx
+++ b/biology/Médecine/Viktor_Skoumine/Viktor_Skoumine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Viktor Andreïevitch Skoumine (en russe : Ви́ктор Андре́евич Ску́мин) est un médecin, psychiatre et essayiste russe né en 1948 en Union soviétique dans l'actuelle Russie.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Viktor Skoumine est né dans l'oblast de Penza en Russie le 30 août 1948, son père était officier du MGB[1].
-En 1973, il sort diplômé avec les honneurs de l'Université nationale de médecine de Kharkiv[2].
-De 1976 à 1980, il travaille à l'Institut national de chirurgie cardiovasculaire de Kiev (ru)[3]. Il est le premier à décrire en 1978[4] le syndrome auquel il a donné son nom, le syndrome de Skoumine[5], une forme d'anxiété subie par les personnes auxquelles a été implantée une valve cardiaque artificielle[6].
-De 1980 à 1990, Viktor Skoumine enseigne à l'académie médicale de formation spécialisée de Kharkiv (en). Il décrit en 1991 le syndrome du fantôme névrotique somatique[7].
-De  1990 à 1994, il est professeur à Académie culturelle d'État de Kharkiv[8]. En 1994, il fonde l'Organisation publique internationale – Organisation mondiale de culture de santé[9]. Il est auteur de chansons, poèmes et œuvres littéraires qui ont été publiées dans le magazine littéraire Berezil.
-The Epoch Times en 2022 a rapporté la participation de Viktor Skoumine à des expériences psychologiques avec des plantes[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Viktor Skoumine est né dans l'oblast de Penza en Russie le 30 août 1948, son père était officier du MGB.
+En 1973, il sort diplômé avec les honneurs de l'Université nationale de médecine de Kharkiv.
+De 1976 à 1980, il travaille à l'Institut national de chirurgie cardiovasculaire de Kiev (ru). Il est le premier à décrire en 1978 le syndrome auquel il a donné son nom, le syndrome de Skoumine, une forme d'anxiété subie par les personnes auxquelles a été implantée une valve cardiaque artificielle.
+De 1980 à 1990, Viktor Skoumine enseigne à l'académie médicale de formation spécialisée de Kharkiv (en). Il décrit en 1991 le syndrome du fantôme névrotique somatique.
+De  1990 à 1994, il est professeur à Académie culturelle d'État de Kharkiv. En 1994, il fonde l'Organisation publique internationale – Organisation mondiale de culture de santé. Il est auteur de chansons, poèmes et œuvres littéraires qui ont été publiées dans le magazine littéraire Berezil.
+The Epoch Times en 2022 a rapporté la participation de Viktor Skoumine à des expériences psychologiques avec des plantes.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Viktor Andreïevitch Skoumine, Boundary psychic disfunctions in infants and teenagers suffering from chronic disorders in digestive system (clinical picture, systematism, treatment, psychic prophylaxis), Open Gray, 1989 (lire en ligne)</t>
         </is>
